--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1329681.127848268</v>
+        <v>-1332381.019969492</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14473989.13952302</v>
+        <v>14473989.13952301</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>124.2655149340658</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>366.8497221770688</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.5922239342041</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>15.69463326232514</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>251.1020764361948</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>27.55204411550122</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>154.1373387853905</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>77.62692579542134</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>111.3057274875595</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>334.6172015031786</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.86538463674614</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>72.35616494941306</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>247.1247026609873</v>
       </c>
       <c r="V13" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>17.48314223074702</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>143.2091541404069</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>245.9454996361813</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>63.841556412593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>224.7837165195618</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.99000985192075</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>15.51491006411167</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1261.601149695411</v>
+        <v>1099.950811817439</v>
       </c>
       <c r="C2" t="n">
-        <v>1261.601149695411</v>
+        <v>974.430089661817</v>
       </c>
       <c r="D2" t="n">
-        <v>903.3354510886609</v>
+        <v>974.430089661817</v>
       </c>
       <c r="E2" t="n">
-        <v>517.5471984904166</v>
+        <v>974.430089661817</v>
       </c>
       <c r="F2" t="n">
-        <v>517.5471984904166</v>
+        <v>563.4441848722093</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974692</v>
+        <v>455.1003844723717</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156594</v>
+        <v>692.7231656905637</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.29204167326</v>
+        <v>1333.746375310458</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908844</v>
+        <v>1639.221481546043</v>
       </c>
       <c r="O2" t="n">
-        <v>1929.733672768592</v>
+        <v>1914.337700862677</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147462</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>2194.618789397901</v>
       </c>
       <c r="V2" t="n">
-        <v>2377.974895202417</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="W2" t="n">
-        <v>2025.206239932303</v>
+        <v>1863.555902054331</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.740481671223</v>
+        <v>1490.090143793251</v>
       </c>
       <c r="Y2" t="n">
-        <v>1261.601149695411</v>
+        <v>1099.950811817439</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.346621798336</v>
+        <v>1541.114624130384</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231667</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.0643975678488</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="C4" t="n">
-        <v>517.1282146399419</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D4" t="n">
-        <v>367.0115752276062</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1295.349144449683</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1295.349144449683</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>1295.349144449683</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361118</v>
+        <v>1040.664656243796</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361118</v>
+        <v>751.2474862068357</v>
       </c>
       <c r="X4" t="n">
-        <v>1083.2127584631</v>
+        <v>751.2474862068357</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.4201793195701</v>
+        <v>530.4549070633055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1774.999523271946</v>
+        <v>1118.265277610684</v>
       </c>
       <c r="C5" t="n">
-        <v>1406.037006331535</v>
+        <v>1118.265277610684</v>
       </c>
       <c r="D5" t="n">
-        <v>1406.037006331535</v>
+        <v>759.9995790039331</v>
       </c>
       <c r="E5" t="n">
-        <v>1020.24875373329</v>
+        <v>374.211326405689</v>
       </c>
       <c r="F5" t="n">
-        <v>609.2628489436829</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G5" t="n">
         <v>355.6243878970215</v>
@@ -4565,25 +4565,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4595,22 +4595,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2127.76817854206</v>
+        <v>2562.16241854957</v>
       </c>
       <c r="V5" t="n">
-        <v>2127.76817854206</v>
+        <v>2231.099531205999</v>
       </c>
       <c r="W5" t="n">
-        <v>1774.999523271946</v>
+        <v>1878.330875935885</v>
       </c>
       <c r="X5" t="n">
-        <v>1774.999523271946</v>
+        <v>1504.865117674805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1774.999523271946</v>
+        <v>1504.865117674805</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682815</v>
+        <v>348.1895090489818</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845962</v>
+        <v>645.5014581652965</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1011.807347657622</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802664</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1952.723412518195</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.5007238344704</v>
+        <v>720.5824774484248</v>
       </c>
       <c r="C7" t="n">
-        <v>348.8064422330658</v>
+        <v>551.6462945205179</v>
       </c>
       <c r="D7" t="n">
-        <v>198.6898028207301</v>
+        <v>473.2352583635267</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4756,19 +4756,19 @@
         <v>1424.049095695859</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.931318706258</v>
+        <v>1424.049095695859</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.931318706258</v>
+        <v>1169.364607489972</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.931318706258</v>
+        <v>1169.364607489972</v>
       </c>
       <c r="X7" t="n">
-        <v>906.9417678082402</v>
+        <v>941.3750565919549</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.1491886647101</v>
+        <v>720.5824774484248</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1663.68467919212</v>
+        <v>1140.796480512552</v>
       </c>
       <c r="C8" t="n">
-        <v>1294.722162251709</v>
+        <v>1140.796480512552</v>
       </c>
       <c r="D8" t="n">
-        <v>1294.722162251709</v>
+        <v>782.5307819058014</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.292134486497</v>
+        <v>396.7425293075572</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>389.7970285583537</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
         <v>51.79985532281972</v>
@@ -4802,19 +4802,19 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135518</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477397</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082061</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599813</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.284519256242</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="W8" t="n">
-        <v>2050.284519256242</v>
+        <v>1904.401570749443</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.284519256242</v>
+        <v>1530.935812488364</v>
       </c>
       <c r="Y8" t="n">
-        <v>2050.284519256242</v>
+        <v>1140.796480512552</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>598.803157343134</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594485</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344687</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
         <v>1987.759237993047</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>590.8296604634102</v>
+        <v>727.1359052451296</v>
       </c>
       <c r="C10" t="n">
-        <v>421.8934775355033</v>
+        <v>558.1997223172227</v>
       </c>
       <c r="D10" t="n">
-        <v>271.7768381231675</v>
+        <v>408.083082904887</v>
       </c>
       <c r="E10" t="n">
-        <v>271.7768381231675</v>
+        <v>260.1699893224938</v>
       </c>
       <c r="F10" t="n">
-        <v>124.8868906252572</v>
+        <v>113.2800418245835</v>
       </c>
       <c r="G10" t="n">
-        <v>124.8868906252572</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>124.8868906252572</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.931318706258</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2468305003707</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8296604634102</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8296604634102</v>
+        <v>1129.576949218899</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8296604634102</v>
+        <v>908.7843700753693</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2429.303343953242</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2246.448509608146</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190824</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>652.8121879835381</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>504.899094401145</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>358.0091469032346</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,25 +6701,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,40 +7093,40 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7260,16 +7260,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7366,10 +7366,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.33868158239</v>
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,28 +7582,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>208.9397025688043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>125.0352042852251</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>66.98553110339691</v>
+        <v>380.8926041660669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>79.95524621404917</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>46.7098604274274</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>245.46701043772</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.763924374041</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>299.8549597144494</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0073768369418</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>45.43801651797531</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>239.2100681176043</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>86.96032969511124</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>39.05977172825686</v>
       </c>
       <c r="V13" t="n">
-        <v>114.1584408891673</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.89210447937467</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.23897475306285</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>39.70888054695304</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>117.1847295890516</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.40075786968239</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>125.5341284403481</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>151.7319110345162</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1083012.947132106</v>
+        <v>1083012.947132105</v>
       </c>
     </row>
     <row r="3">
@@ -26323,19 +26323,19 @@
         <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="G2" t="n">
         <v>161429.3199380013</v>
-      </c>
-      <c r="G2" t="n">
-        <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="J2" t="n">
         <v>161429.3199380013</v>
-      </c>
-      <c r="J2" t="n">
-        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380013</v>
@@ -26347,7 +26347,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728568</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77576.42687802279</v>
+        <v>77576.42687802232</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,40 +26424,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695041</v>
+        <v>6287.480531695065</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695042</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695072</v>
-      </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695042</v>
       </c>
       <c r="L4" t="n">
+        <v>14278.33979478851</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14278.33979478852</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14278.33979478854</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.3397947885</v>
       </c>
-      <c r="M4" t="n">
-        <v>14278.33979478848</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14278.33979478846</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14278.33979478854</v>
-      </c>
       <c r="P4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-971202.7249349519</v>
+        <v>-971562.8079506718</v>
       </c>
       <c r="C6" t="n">
-        <v>-231103.8499037959</v>
+        <v>-231103.8499037931</v>
       </c>
       <c r="D6" t="n">
-        <v>-58339.4901139009</v>
+        <v>-58339.49011390086</v>
       </c>
       <c r="E6" t="n">
-        <v>-446869.5581633517</v>
+        <v>-446904.2960887876</v>
       </c>
       <c r="F6" t="n">
-        <v>54019.3095823991</v>
+        <v>53984.57165696335</v>
       </c>
       <c r="G6" t="n">
-        <v>54019.30958239904</v>
+        <v>53984.57165696341</v>
       </c>
       <c r="H6" t="n">
-        <v>54019.30958239904</v>
+        <v>53984.57165696332</v>
       </c>
       <c r="I6" t="n">
-        <v>54019.3095823991</v>
+        <v>53984.57165696335</v>
       </c>
       <c r="J6" t="n">
-        <v>-115394.707243649</v>
+        <v>-115429.4451690846</v>
       </c>
       <c r="K6" t="n">
-        <v>54019.3095823991</v>
+        <v>53984.57165696347</v>
       </c>
       <c r="L6" t="n">
-        <v>27338.18033052115</v>
+        <v>27338.18033052105</v>
       </c>
       <c r="M6" t="n">
-        <v>-84118.55858008249</v>
+        <v>-84118.55858008243</v>
       </c>
       <c r="N6" t="n">
-        <v>46765.89832415291</v>
+        <v>46765.8983241528</v>
       </c>
       <c r="O6" t="n">
-        <v>46765.89832415289</v>
+        <v>46765.89832415286</v>
       </c>
       <c r="P6" t="n">
         <v>46765.89832415286</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352464</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69.387377331907</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.35545427831305</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.239756247733197</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>184.7528911089763</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -27594,13 +27594,13 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>160.4229469456746</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>223.491391661674</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>13.10948231323732</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>70.98854722279101</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>270.6246425847023</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>76.90782187869075</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>105.4310422139834</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>32.13449456358808</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203965</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,28 +31671,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>302.967544750805</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948329</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
@@ -33284,7 +33284,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873202</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>486.8348735957057</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>327.3628076075518</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>333.5911184725747</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>368.1712769547897</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>235.2568194205715</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35024,16 +35024,16 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>497.4637052508702</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.310883367185</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>638.166758417006</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35343,13 +35343,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287866</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096334</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>23.94570355317107</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317107</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281453</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,19 +37154,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37628,19 +37628,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
